--- a/萌萌三國.xlsx
+++ b/萌萌三國.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="加頁面載" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,26 @@
   </si>
   <si>
     <t>取消(被勝利頁面取代)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋找材料拼湊外框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鈕需增加特效 隱藏此頁  
+給予獎勵或不給予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此頁消失 特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取字樣
+(已經領過了?
+顯示可以領到的東西:顯示說天再來
+)紀錄領取時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2275,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B193"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2326,21 +2346,30 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1">
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2349,6 +2378,9 @@
       </c>
       <c r="B6" s="4">
         <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9954,7 +9986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/萌萌三國.xlsx
+++ b/萌萌三國.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="加頁面載" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,6 +784,14 @@
 (已經領過了?
 顯示可以領到的東西:顯示說天再來
 )紀錄領取時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否撥放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,11 +970,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,15 +1289,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -2295,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2306,15 +2314,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -2961,22 +2969,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="39">
       <c r="A2" s="1" t="s">
@@ -3008,6 +3016,9 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -3015,6 +3026,9 @@
       </c>
       <c r="B4" s="4">
         <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3985,15 +3999,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="39">
       <c r="A2" s="1" t="s">
@@ -5006,15 +5020,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -5097,15 +5111,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -5752,15 +5766,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -6813,15 +6827,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -7503,15 +7517,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -8223,15 +8237,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="40.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -9067,15 +9081,15 @@
   </cols>
   <sheetData>
     <row r="19" spans="1:7" ht="48" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="48" customHeight="1">
       <c r="A20" s="1" t="s">
@@ -9285,15 +9299,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -9997,15 +10011,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -10095,7 +10109,7 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>160</v>
       </c>
     </row>

--- a/萌萌三國.xlsx
+++ b/萌萌三國.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" tabRatio="791" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="加頁面載" sheetId="1" r:id="rId1"/>
@@ -2969,7 +2969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3990,7 +3990,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5755,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5893,914 +5893,550 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4">
-        <v>0</v>
-      </c>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4">
-        <v>0</v>
-      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4">
-        <v>0</v>
-      </c>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4">
-        <v>0</v>
-      </c>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4">
-        <v>0</v>
-      </c>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4">
-        <v>0</v>
-      </c>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4">
-        <v>0</v>
-      </c>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4">
-        <v>0</v>
-      </c>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4">
-        <v>0</v>
-      </c>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4">
-        <v>0</v>
-      </c>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4">
-        <v>0</v>
-      </c>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4">
-        <v>0</v>
-      </c>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4">
-        <v>0</v>
-      </c>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4">
-        <v>0</v>
-      </c>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4">
-        <v>0</v>
-      </c>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4">
-        <v>0</v>
-      </c>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4">
-        <v>0</v>
-      </c>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4">
-        <v>0</v>
-      </c>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4">
-        <v>0</v>
-      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4">
-        <v>0</v>
-      </c>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4">
-        <v>0</v>
-      </c>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4">
-        <v>0</v>
-      </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4">
-        <v>0</v>
-      </c>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4">
-        <v>0</v>
-      </c>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="4">
-        <v>0</v>
-      </c>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="4">
-        <v>0</v>
-      </c>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4">
-        <v>0</v>
-      </c>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="4">
-        <v>0</v>
-      </c>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4">
-        <v>0</v>
-      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="4">
-        <v>0</v>
-      </c>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="4">
-        <v>0</v>
-      </c>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="4">
-        <v>0</v>
-      </c>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="4">
-        <v>0</v>
-      </c>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="4">
-        <v>0</v>
-      </c>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4">
-        <v>0</v>
-      </c>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="4">
-        <v>0</v>
-      </c>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="4">
-        <v>0</v>
-      </c>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="4">
-        <v>0</v>
-      </c>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
+      <c r="B104" s="4"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="4">
-        <v>0</v>
-      </c>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="4">
-        <v>0</v>
-      </c>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="4">
-        <v>0</v>
-      </c>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="4">
-        <v>0</v>
-      </c>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="4">
-        <v>0</v>
-      </c>
+      <c r="B109" s="4"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="4">
-        <v>0</v>
-      </c>
+      <c r="B110" s="4"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
+      <c r="B111" s="4"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
+      <c r="B112" s="4"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="4">
-        <v>0</v>
-      </c>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="4">
-        <v>0</v>
-      </c>
+      <c r="B114" s="4"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="4">
-        <v>0</v>
-      </c>
+      <c r="B115" s="4"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="4">
-        <v>0</v>
-      </c>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="4">
-        <v>0</v>
-      </c>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="4">
-        <v>0</v>
-      </c>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="4">
-        <v>0</v>
-      </c>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="4">
-        <v>0</v>
-      </c>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="4">
-        <v>0</v>
-      </c>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="4">
-        <v>0</v>
-      </c>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="4">
-        <v>0</v>
-      </c>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="4">
-        <v>0</v>
-      </c>
+      <c r="B125" s="4"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="4">
-        <v>0</v>
-      </c>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="4">
-        <v>0</v>
-      </c>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="4">
-        <v>0</v>
-      </c>
+      <c r="B128" s="4"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="4">
-        <v>0</v>
-      </c>
+      <c r="B129" s="4"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="4">
-        <v>0</v>
-      </c>
+      <c r="B130" s="4"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="4">
-        <v>0</v>
-      </c>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="4">
-        <v>0</v>
-      </c>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="4">
-        <v>0</v>
-      </c>
+      <c r="B133" s="4"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="4">
-        <v>0</v>
-      </c>
+      <c r="B134" s="4"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="4">
-        <v>0</v>
-      </c>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="4">
-        <v>0</v>
-      </c>
+      <c r="B136" s="4"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="4">
-        <v>0</v>
-      </c>
+      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="4">
-        <v>0</v>
-      </c>
+      <c r="B138" s="4"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="4">
-        <v>0</v>
-      </c>
+      <c r="B139" s="4"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="4">
-        <v>0</v>
-      </c>
+      <c r="B140" s="4"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="4">
-        <v>0</v>
-      </c>
+      <c r="B141" s="4"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="4">
-        <v>0</v>
-      </c>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="4">
-        <v>0</v>
-      </c>
+      <c r="B143" s="4"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="4">
-        <v>0</v>
-      </c>
+      <c r="B144" s="4"/>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="4">
-        <v>0</v>
-      </c>
+      <c r="B145" s="4"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="4">
-        <v>0</v>
-      </c>
+      <c r="B146" s="4"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="4">
-        <v>0</v>
-      </c>
+      <c r="B147" s="4"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="4">
-        <v>0</v>
-      </c>
+      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="4">
-        <v>0</v>
-      </c>
+      <c r="B149" s="4"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="4">
-        <v>0</v>
-      </c>
+      <c r="B150" s="4"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="4">
-        <v>0</v>
-      </c>
+      <c r="B151" s="4"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="4">
-        <v>0</v>
-      </c>
+      <c r="B152" s="4"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="4">
-        <v>0</v>
-      </c>
+      <c r="B153" s="4"/>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="4">
-        <v>0</v>
-      </c>
+      <c r="B154" s="4"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="4">
-        <v>0</v>
-      </c>
+      <c r="B155" s="4"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="4">
-        <v>0</v>
-      </c>
+      <c r="B156" s="4"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="4">
-        <v>0</v>
-      </c>
+      <c r="B157" s="4"/>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="4">
-        <v>0</v>
-      </c>
+      <c r="B158" s="4"/>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="4">
-        <v>0</v>
-      </c>
+      <c r="B159" s="4"/>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="4">
-        <v>0</v>
-      </c>
+      <c r="B160" s="4"/>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="4">
-        <v>0</v>
-      </c>
+      <c r="B161" s="4"/>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="4">
-        <v>0</v>
-      </c>
+      <c r="B162" s="4"/>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="4">
-        <v>0</v>
-      </c>
+      <c r="B163" s="4"/>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="4">
-        <v>0</v>
-      </c>
+      <c r="B164" s="4"/>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="4">
-        <v>0</v>
-      </c>
+      <c r="B165" s="4"/>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="4">
-        <v>0</v>
-      </c>
+      <c r="B166" s="4"/>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="4">
-        <v>0</v>
-      </c>
+      <c r="B167" s="4"/>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="4">
-        <v>0</v>
-      </c>
+      <c r="B168" s="4"/>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="4">
-        <v>0</v>
-      </c>
+      <c r="B169" s="4"/>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="4">
-        <v>0</v>
-      </c>
+      <c r="B170" s="4"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="4">
-        <v>0</v>
-      </c>
+      <c r="B171" s="4"/>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="4">
-        <v>0</v>
-      </c>
+      <c r="B172" s="4"/>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="4">
-        <v>0</v>
-      </c>
+      <c r="B173" s="4"/>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="4">
-        <v>0</v>
-      </c>
+      <c r="B174" s="4"/>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="4">
-        <v>0</v>
-      </c>
+      <c r="B175" s="4"/>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="4">
-        <v>0</v>
-      </c>
+      <c r="B176" s="4"/>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="4">
-        <v>0</v>
-      </c>
+      <c r="B177" s="4"/>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="4">
-        <v>0</v>
-      </c>
+      <c r="B178" s="4"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="4">
-        <v>0</v>
-      </c>
+      <c r="B179" s="4"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="4">
-        <v>0</v>
-      </c>
+      <c r="B180" s="4"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="4">
-        <v>0</v>
-      </c>
+      <c r="B181" s="4"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="4">
-        <v>0</v>
-      </c>
+      <c r="B182" s="4"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="4">
-        <v>0</v>
-      </c>
+      <c r="B183" s="4"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="4">
-        <v>0</v>
-      </c>
+      <c r="B184" s="4"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="4">
-        <v>0</v>
-      </c>
+      <c r="B185" s="4"/>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="4">
-        <v>0</v>
-      </c>
+      <c r="B186" s="4"/>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="4">
-        <v>0</v>
-      </c>
+      <c r="B187" s="4"/>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="4">
-        <v>0</v>
-      </c>
+      <c r="B188" s="4"/>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="4">
-        <v>0</v>
-      </c>
+      <c r="B189" s="4"/>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="4">
-        <v>0</v>
-      </c>
+      <c r="B190" s="4"/>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="4">
-        <v>0</v>
-      </c>
+      <c r="B191" s="4"/>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="4">
-        <v>0</v>
-      </c>
+      <c r="B192" s="4"/>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="4">
-        <v>0</v>
-      </c>
+      <c r="B193" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6817,7 +6453,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7504,8 +7140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B193"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8226,7 +7862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:B192"/>
     </sheetView>
   </sheetViews>
@@ -9071,7 +8707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A19:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:B52"/>
     </sheetView>
   </sheetViews>
